--- a/2206Q/riscduino_board/Riscduino_Uno_Rev1.0/Riscduino_Uno.xlsx
+++ b/2206Q/riscduino_board/Riscduino_Uno_Rev1.0/Riscduino_Uno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlsi\github\mpw_bringup\2206Q\riscduino_board\Riscduino_Uno_Rev1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B17CBD-0F8D-41DF-835A-0BDFC8F0EE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5472B34-0686-4A6E-B515-73A26C600CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="450" windowWidth="22950" windowHeight="15030" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
+    <workbookView xWindow="4335" yWindow="390" windowWidth="22950" windowHeight="15030" xr2:uid="{3FCDD850-E4E8-4387-86E3-F9BFFF75D700}"/>
   </bookViews>
   <sheets>
     <sheet name="Riscduino_Uno" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>R13,R17,R9,R10,R11,R8,R32</t>
-  </si>
-  <si>
-    <t>0E</t>
   </si>
   <si>
     <t>C17,C20</t>
@@ -318,6 +315,12 @@
   <si>
     <t>C3,C21,C18,C16,C26,C23,C24,C25
 C10,C6,C19,C5,C8,C12,C2,C13,C7,C11,C9,C4,C1</t>
+  </si>
+  <si>
+    <t>10uF (DNI)</t>
+  </si>
+  <si>
+    <t>0E (Do Short using Single stand wire)</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -731,7 +733,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,779 +778,808 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f>A6+1</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f>A7+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f>A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f>A9+1</f>
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
+        <f>A12+1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>16</v>
+        <f>A14+1</f>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
+        <f>A15+1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
+        <f>A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
+        <f>A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
+        <f>A25+1</f>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
+        <f>A19+1</f>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
+        <f>A20+1</f>
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
+        <f>A18+1</f>
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
+        <f>A22+1</f>
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
+        <f>A23+1</f>
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
+        <f>A24+1</f>
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
+        <f>A31+1</f>
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
+        <f>A21+1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
+        <f>A27+1</f>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
+        <f>A28+1</f>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
+        <f>A29+1</f>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
+        <f>A30+1</f>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
         <v>11</v>
       </c>
     </row>
